--- a/data/20180125-NPRB-crab-sample-data.xlsx
+++ b/data/20180125-NPRB-crab-sample-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5413" uniqueCount="257">
   <si>
     <t>Tank #</t>
   </si>
@@ -1056,39 +1056,6 @@
     <t>CH</t>
   </si>
   <si>
-    <t>Samples for RNA isolation</t>
-  </si>
-  <si>
-    <t>Numbers are sample Tube #s</t>
-  </si>
-  <si>
-    <t>Day 9 (Green)</t>
-  </si>
-  <si>
-    <t>Day 12 (Pink)</t>
-  </si>
-  <si>
-    <t>Infected</t>
-  </si>
-  <si>
-    <t>Uninfected</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>Ambient</t>
-  </si>
-  <si>
-    <t>Warm</t>
-  </si>
-  <si>
-    <t>Day 26 (Yellow)</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
 </sst>
@@ -1214,7 +1181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1303,153 +1270,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1770,48 +1597,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13800,8 +13592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q482"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K351" sqref="K351"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31807,7 +31599,7 @@
   <dimension ref="A1:AD347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="H344" sqref="H344"/>
+      <selection activeCell="V2" sqref="V2:AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31929,9 +31721,15 @@
       <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" t="s">
-        <v>256</v>
-      </c>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="138" t="s">
@@ -31973,9 +31771,15 @@
       <c r="S3" s="104">
         <v>3</v>
       </c>
-      <c r="V3" t="s">
-        <v>257</v>
-      </c>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="138" t="s">
@@ -32017,21 +31821,15 @@
       <c r="S4" s="104">
         <v>3</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD4" s="154"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="138" t="s">
@@ -32081,31 +31879,15 @@
       <c r="S5" s="104">
         <v>3</v>
       </c>
-      <c r="V5" s="155"/>
-      <c r="W5" s="160" t="s">
-        <v>260</v>
-      </c>
-      <c r="X5" s="156" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y5" s="155" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z5" s="156" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA5" s="155" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB5" s="156" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC5" s="152" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD5" s="156" t="s">
-        <v>261</v>
-      </c>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="138" t="s">
@@ -32147,33 +31929,15 @@
       <c r="S6" s="104">
         <v>3</v>
       </c>
-      <c r="V6" s="172" t="s">
-        <v>258</v>
-      </c>
-      <c r="W6" s="173">
-        <v>76</v>
-      </c>
-      <c r="X6" s="154">
-        <v>88</v>
-      </c>
-      <c r="Y6" s="168" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z6" s="168" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA6" s="168" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB6" s="168" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC6" s="168" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD6" s="165" t="s">
-        <v>266</v>
-      </c>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="154"/>
+      <c r="AB6" s="154"/>
+      <c r="AC6" s="154"/>
+      <c r="AD6" s="154"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="138" t="s">
@@ -32215,33 +31979,15 @@
       <c r="S7" s="104">
         <v>3</v>
       </c>
-      <c r="V7" s="171" t="s">
-        <v>258</v>
-      </c>
-      <c r="W7" s="174">
-        <v>56</v>
-      </c>
-      <c r="X7" s="161">
-        <v>176</v>
-      </c>
-      <c r="Y7" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z7" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA7" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB7" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC7" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD7" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="154"/>
+      <c r="AD7" s="154"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="138" t="s">
@@ -32293,33 +32039,15 @@
       <c r="S8" s="104">
         <v>3</v>
       </c>
-      <c r="V8" s="171" t="s">
-        <v>258</v>
-      </c>
-      <c r="W8" s="174">
-        <v>130</v>
-      </c>
-      <c r="X8" s="161">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z8" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA8" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB8" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC8" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD8" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="138" t="s">
@@ -32363,33 +32091,15 @@
       <c r="S9" s="104">
         <v>3</v>
       </c>
-      <c r="V9" s="171" t="s">
-        <v>258</v>
-      </c>
-      <c r="W9" s="174">
-        <v>43</v>
-      </c>
-      <c r="X9" s="161">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z9" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA9" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB9" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC9" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD9" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="138" t="s">
@@ -32432,35 +32142,17 @@
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>267</v>
-      </c>
-      <c r="V10" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="W10" s="175">
-        <v>6</v>
-      </c>
-      <c r="X10" s="156">
-        <v>80</v>
-      </c>
-      <c r="Y10" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z10" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA10" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB10" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC10" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD10" s="167" t="s">
-        <v>266</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="138" t="s">
@@ -32510,33 +32202,15 @@
       <c r="S11" s="104">
         <v>3</v>
       </c>
-      <c r="V11" s="157" t="s">
-        <v>259</v>
-      </c>
-      <c r="W11" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X11" s="165" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y11" s="162">
-        <v>212</v>
-      </c>
-      <c r="Z11" s="154">
-        <v>205</v>
-      </c>
-      <c r="AA11" s="162">
-        <v>303</v>
-      </c>
-      <c r="AB11" s="154">
-        <v>339</v>
-      </c>
-      <c r="AC11" s="162">
-        <v>274</v>
-      </c>
-      <c r="AD11" s="154">
-        <v>370</v>
-      </c>
+      <c r="V11" s="111"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="138" t="s">
@@ -32578,33 +32252,15 @@
       <c r="S12" s="104">
         <v>3</v>
       </c>
-      <c r="V12" s="157" t="s">
-        <v>259</v>
-      </c>
-      <c r="W12" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X12" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y12" s="163">
-        <v>213</v>
-      </c>
-      <c r="Z12" s="161">
-        <v>216</v>
-      </c>
-      <c r="AA12" s="163">
-        <v>318</v>
-      </c>
-      <c r="AB12" s="161">
-        <v>349</v>
-      </c>
-      <c r="AC12" s="163">
-        <v>299</v>
-      </c>
-      <c r="AD12" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V12" s="111"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="154"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="138" t="s">
@@ -32646,33 +32302,15 @@
       <c r="S13" s="104">
         <v>3</v>
       </c>
-      <c r="V13" s="157" t="s">
-        <v>259</v>
-      </c>
-      <c r="W13" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X13" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y13" s="163">
-        <v>228</v>
-      </c>
-      <c r="Z13" s="161">
-        <v>223</v>
-      </c>
-      <c r="AA13" s="163">
-        <v>325</v>
-      </c>
-      <c r="AB13" s="161">
-        <v>351</v>
-      </c>
-      <c r="AC13" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD13" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V13" s="111"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="138" t="s">
@@ -32722,33 +32360,15 @@
       <c r="S14" s="104">
         <v>3</v>
       </c>
-      <c r="V14" s="157" t="s">
-        <v>259</v>
-      </c>
-      <c r="W14" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X14" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y14" s="163">
-        <v>234</v>
-      </c>
-      <c r="Z14" s="161">
-        <v>242</v>
-      </c>
-      <c r="AA14" s="163">
-        <v>326</v>
-      </c>
-      <c r="AB14" s="161">
-        <v>355</v>
-      </c>
-      <c r="AC14" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD14" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V14" s="111"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="138" t="s">
@@ -32790,33 +32410,15 @@
       <c r="S15" s="104">
         <v>3</v>
       </c>
-      <c r="V15" s="177" t="s">
-        <v>259</v>
-      </c>
-      <c r="W15" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="X15" s="167" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y15" s="164">
-        <v>255</v>
-      </c>
-      <c r="Z15" s="156">
-        <v>247</v>
-      </c>
-      <c r="AA15" s="164">
-        <v>352</v>
-      </c>
-      <c r="AB15" s="156">
-        <v>360</v>
-      </c>
-      <c r="AC15" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD15" s="167" t="s">
-        <v>266</v>
-      </c>
+      <c r="V15" s="111"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="138" t="s">
@@ -32858,33 +32460,15 @@
       <c r="S16" s="104">
         <v>3</v>
       </c>
-      <c r="V16" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="W16" s="168" t="s">
-        <v>266</v>
-      </c>
-      <c r="X16" s="165" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y16" s="162">
-        <v>405</v>
-      </c>
-      <c r="Z16" s="154">
-        <v>406</v>
-      </c>
-      <c r="AA16" s="162">
-        <v>472</v>
-      </c>
-      <c r="AB16" s="154">
-        <v>469</v>
-      </c>
-      <c r="AC16" s="162">
-        <v>401</v>
-      </c>
-      <c r="AD16" s="154">
-        <v>402</v>
-      </c>
+      <c r="V16" s="111"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="138" t="s">
@@ -32934,33 +32518,15 @@
       <c r="S17" s="104">
         <v>3</v>
       </c>
-      <c r="V17" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="W17" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X17" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y17" s="163">
-        <v>417</v>
-      </c>
-      <c r="Z17" s="161">
-        <v>422</v>
-      </c>
-      <c r="AA17" s="163">
-        <v>484</v>
-      </c>
-      <c r="AB17" s="161">
-        <v>470</v>
-      </c>
-      <c r="AC17" s="163">
-        <v>403</v>
-      </c>
-      <c r="AD17" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V17" s="111"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="154"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="138" t="s">
@@ -33002,33 +32568,15 @@
       <c r="S18" s="104">
         <v>3</v>
       </c>
-      <c r="V18" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="W18" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X18" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y18" s="163">
-        <v>424</v>
-      </c>
-      <c r="Z18" s="161">
-        <v>434</v>
-      </c>
-      <c r="AA18" s="163">
-        <v>489</v>
-      </c>
-      <c r="AB18" s="161">
-        <v>480</v>
-      </c>
-      <c r="AC18" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD18" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V18" s="111"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="138" t="s">
@@ -33070,33 +32618,15 @@
       <c r="S19" s="104">
         <v>3</v>
       </c>
-      <c r="V19" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="W19" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X19" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y19" s="163">
-        <v>438</v>
-      </c>
-      <c r="Z19" s="161">
-        <v>446</v>
-      </c>
-      <c r="AA19" s="163">
-        <v>503</v>
-      </c>
-      <c r="AB19" s="161">
-        <v>496</v>
-      </c>
-      <c r="AC19" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD19" s="166" t="s">
-        <v>266</v>
-      </c>
+      <c r="V19" s="111"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="138" t="s">
@@ -33146,33 +32676,15 @@
       <c r="S20" s="104">
         <v>3</v>
       </c>
-      <c r="V20" s="159" t="s">
-        <v>265</v>
-      </c>
-      <c r="W20" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="X20" s="167" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y20" s="164">
-        <v>455</v>
-      </c>
-      <c r="Z20" s="156">
-        <v>453</v>
-      </c>
-      <c r="AA20" s="164">
-        <v>513</v>
-      </c>
-      <c r="AB20" s="156">
-        <v>498</v>
-      </c>
-      <c r="AC20" s="170" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD20" s="167" t="s">
-        <v>266</v>
-      </c>
+      <c r="V20" s="111"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="138" t="s">
@@ -33214,6 +32726,15 @@
       <c r="S21" s="104">
         <v>3</v>
       </c>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="138" t="s">
@@ -45837,7 +45358,7 @@
     <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="141"/>
       <c r="B341" s="141"/>
-      <c r="J341" s="179"/>
+      <c r="J341" s="152"/>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="R342" s="62"/>
@@ -51461,16 +50982,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
